--- a/modules/tensor_mechanics/tests/mohr_coulomb/uni_axial1.xlsx
+++ b/modules/tensor_mechanics/tests/mohr_coulomb/uni_axial1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="expected" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="uni_axial1" localSheetId="1">uni_axial1!$C$4:$M$15</definedName>
+    <definedName name="uni_axial1" localSheetId="1">uni_axial1!$C$4:$K$15</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>cohesion</t>
   </si>
@@ -64,13 +64,7 @@
     <t>f</t>
   </si>
   <si>
-    <t>max_ps</t>
-  </si>
-  <si>
     <t>mc_int</t>
-  </si>
-  <si>
-    <t>min_ps</t>
   </si>
   <si>
     <t>s_xx</t>
@@ -590,9 +584,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>uni_axial1!$M$9:$M$132</c:f>
+              <c:f>uni_axial1!$K$9:$K$132</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>-19911387.154222</c:v>
@@ -619,11 +613,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98308480"/>
-        <c:axId val="98310016"/>
+        <c:axId val="109191168"/>
+        <c:axId val="109193856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98308480"/>
+        <c:axId val="109191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -654,12 +648,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98310016"/>
+        <c:crossAx val="109193856"/>
         <c:crossesAt val="-40000000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98310016"/>
+        <c:axId val="109193856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-19000000"/>
@@ -692,7 +686,7 @@
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98308480"/>
+        <c:crossAx val="109191168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1035,24 +1029,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:17">
       <c r="P1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -1060,7 +1053,7 @@
     </row>
     <row r="2" spans="3:17">
       <c r="P2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>40</v>
@@ -1068,7 +1061,7 @@
     </row>
     <row r="3" spans="3:17">
       <c r="P3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10000</v>
@@ -1100,12 +1093,6 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
         <v>3</v>
       </c>
       <c r="P4" t="s">
@@ -1140,14 +1127,8 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="P5">
-        <f>$Q$2+($Q$1-$Q$2)*EXP(-$Q$3*F5)</f>
+        <f>$Q$2+($Q$1-$Q$2)*EXP(-$Q$3*E5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1159,34 +1140,28 @@
         <v>-7450518.1188037004</v>
       </c>
       <c r="E6" s="1">
-        <v>-3.7336100382882999E-6</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>-3.7336722016335E-6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1781920531693998E-11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.2863592861769997E-11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-3.7336722016335E-6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1.1209915998117E-11</v>
+      </c>
+      <c r="K6" s="1">
         <v>-5004724.8945925003</v>
       </c>
-      <c r="H6" s="1">
-        <v>-3.7336722016335E-6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.1781920531693998E-11</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7.2863592861769997E-11</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-3.7336722016335E-6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-1.1209915998117E-11</v>
-      </c>
-      <c r="M6">
-        <v>-5004724.8945925003</v>
-      </c>
       <c r="P6">
-        <f t="shared" ref="P6:P15" si="0">$Q$2+($Q$1-$Q$2)*EXP(-$Q$3*F6)</f>
+        <f t="shared" ref="P6:P15" si="0">$Q$2+($Q$1-$Q$2)*EXP(-$Q$3*E6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1198,30 +1173,24 @@
         <v>-4900908.7539481996</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1330174679565999E-5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-10009700.044176999</v>
+        <v>2.1330080926418E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.2800349928432998E-11</v>
       </c>
       <c r="H7" s="1">
+        <v>4.7895629644443E-11</v>
+      </c>
+      <c r="I7" s="1">
         <v>2.1330080926418E-5</v>
       </c>
-      <c r="I7" s="1">
-        <v>4.2800349928432998E-11</v>
-      </c>
       <c r="J7" s="1">
-        <v>4.7895629644443E-11</v>
+        <v>6.1138056477092001E-12</v>
       </c>
       <c r="K7" s="1">
-        <v>2.1330080926418E-5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.1138056477092001E-12</v>
-      </c>
-      <c r="M7">
         <v>-10009700.044176999</v>
       </c>
       <c r="P7">
@@ -1237,30 +1206,24 @@
         <v>-2351171.8927051001</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.6663644328517999E-5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-15014925.473833</v>
+        <v>-1.6663689166306999E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-4.0761626733460001E-12</v>
       </c>
       <c r="H8" s="1">
+        <v>1.0394214709467E-10</v>
+      </c>
+      <c r="I8" s="1">
         <v>-1.6663689166306999E-5</v>
       </c>
-      <c r="I8" s="1">
-        <v>-4.0761626733460001E-12</v>
-      </c>
       <c r="J8" s="1">
-        <v>1.0394214709467E-10</v>
+        <v>-8.1528021662757001E-11</v>
       </c>
       <c r="K8" s="1">
-        <v>-1.6663689166306999E-5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-8.1528021662757001E-11</v>
-      </c>
-      <c r="M8">
         <v>-15014925.473833</v>
       </c>
       <c r="P8">
@@ -1276,30 +1239,24 @@
         <v>2.9802322387695001E-8</v>
       </c>
       <c r="E9" s="1">
-        <v>-7.1169693398134005E-5</v>
+        <v>2.1380183212569999E-6</v>
       </c>
       <c r="F9" s="1">
-        <v>2.1380183212569999E-6</v>
-      </c>
-      <c r="G9">
-        <v>-19911387.154222</v>
+        <v>-7.1169711212278993E-5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.9191980669625999E-11</v>
       </c>
       <c r="H9" s="1">
-        <v>-7.1169711212278993E-5</v>
+        <v>5.8732402213388006E-11</v>
       </c>
       <c r="I9" s="1">
-        <v>1.9191980669625999E-11</v>
+        <v>-7.1169717070316004E-5</v>
       </c>
       <c r="J9" s="1">
-        <v>5.8732402213388006E-11</v>
+        <v>7.2907076661431999E-11</v>
       </c>
       <c r="K9" s="1">
-        <v>-7.1169717070316004E-5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7.2907076661431999E-11</v>
-      </c>
-      <c r="M9">
         <v>-19911387.154222</v>
       </c>
       <c r="P9">
@@ -1315,30 +1272,24 @@
         <v>3.2484531402588001E-6</v>
       </c>
       <c r="E10" s="1">
-        <v>-8.4067020154814998E-6</v>
+        <v>3.0829099209281997E-5</v>
       </c>
       <c r="F10" s="1">
-        <v>3.0829099209281997E-5</v>
-      </c>
-      <c r="G10">
-        <v>-23454201.970605001</v>
+        <v>-8.4067422227995995E-6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-4.2817446478457003E-12</v>
       </c>
       <c r="H10" s="1">
-        <v>-8.4067422227995995E-6</v>
+        <v>-4.0271013710720003E-11</v>
       </c>
       <c r="I10" s="1">
-        <v>-4.2817446478457003E-12</v>
+        <v>-8.4067698338241993E-6</v>
       </c>
       <c r="J10" s="1">
-        <v>-4.0271013710720003E-11</v>
+        <v>-2.0972520314297999E-10</v>
       </c>
       <c r="K10" s="1">
-        <v>-8.4067698338241993E-6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-2.0972520314297999E-10</v>
-      </c>
-      <c r="M10">
         <v>-23454201.970605001</v>
       </c>
       <c r="P10">
@@ -1354,30 +1305,24 @@
         <v>1.4398247003554999E-6</v>
       </c>
       <c r="E11" s="1">
-        <v>-1.430689726544E-5</v>
+        <v>6.2476479782242001E-5</v>
       </c>
       <c r="F11" s="1">
-        <v>6.2476479782242001E-5</v>
-      </c>
-      <c r="G11">
-        <v>-26846530.260579001</v>
+        <v>-1.4307327760088E-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-7.4126024987611994E-11</v>
       </c>
       <c r="H11" s="1">
-        <v>-1.4307327760088E-5</v>
+        <v>7.4786117645920999E-11</v>
       </c>
       <c r="I11" s="1">
-        <v>-7.4126024987611994E-11</v>
+        <v>-1.4306915281148E-5</v>
       </c>
       <c r="J11" s="1">
-        <v>7.4786117645920999E-11</v>
+        <v>-1.6833933986924E-12</v>
       </c>
       <c r="K11" s="1">
-        <v>-1.4306915281148E-5</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1.6833933986924E-12</v>
-      </c>
-      <c r="M11">
         <v>-26846530.260579001</v>
       </c>
       <c r="P11">
@@ -1393,30 +1338,24 @@
         <v>4.3585896492003997E-7</v>
       </c>
       <c r="E12" s="1">
-        <v>-4.7433557113717001E-5</v>
+        <v>9.8356074743521002E-5</v>
       </c>
       <c r="F12" s="1">
-        <v>9.8356074743521002E-5</v>
-      </c>
-      <c r="G12">
-        <v>-30023315.247058</v>
+        <v>-4.7434010388424997E-5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.5047025028887003E-11</v>
       </c>
       <c r="H12" s="1">
-        <v>-4.7434010388424997E-5</v>
+        <v>5.4638526352020003E-11</v>
       </c>
       <c r="I12" s="1">
-        <v>5.5047025028887003E-11</v>
+        <v>-4.7433567183618998E-5</v>
       </c>
       <c r="J12" s="1">
-        <v>5.4638526352020003E-11</v>
+        <v>9.0011688699787004E-11</v>
       </c>
       <c r="K12" s="1">
-        <v>-4.7433567183618998E-5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>9.0011688699787004E-11</v>
-      </c>
-      <c r="M12">
         <v>-30023315.247058</v>
       </c>
       <c r="P12">
@@ -1432,30 +1371,24 @@
         <v>8.9406967163086004E-8</v>
       </c>
       <c r="E13" s="1">
-        <v>6.9241164709956001E-6</v>
+        <v>1.4034036580265E-4</v>
       </c>
       <c r="F13" s="1">
-        <v>1.4034036580265E-4</v>
-      </c>
-      <c r="G13">
-        <v>-32889082.177824002</v>
+        <v>6.9234832623665996E-6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.2748959640890999E-10</v>
       </c>
       <c r="H13" s="1">
-        <v>6.9234832623665996E-6</v>
+        <v>5.0820312818648999E-11</v>
       </c>
       <c r="I13" s="1">
-        <v>3.2748959640890999E-10</v>
+        <v>6.9238904547575001E-6</v>
       </c>
       <c r="J13" s="1">
-        <v>5.0820312818648999E-11</v>
+        <v>-2.6552982200101999E-10</v>
       </c>
       <c r="K13" s="1">
-        <v>6.9238904547575001E-6</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-2.6552982200101999E-10</v>
-      </c>
-      <c r="M13">
         <v>-32889082.177824002</v>
       </c>
       <c r="P13">
@@ -1471,30 +1404,24 @@
         <v>-2.6077032089233001E-8</v>
       </c>
       <c r="E14" s="1">
-        <v>-5.0467692750282997E-5</v>
+        <v>1.9096810963169E-4</v>
       </c>
       <c r="F14" s="1">
-        <v>1.9096810963169E-4</v>
-      </c>
-      <c r="G14">
-        <v>-35314384.031191997</v>
+        <v>-5.0468153470705998E-5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.9860693084631003E-11</v>
       </c>
       <c r="H14" s="1">
-        <v>-5.0468153470705998E-5</v>
+        <v>1.1452917675300001E-10</v>
       </c>
       <c r="I14" s="1">
-        <v>4.9860693084631003E-11</v>
+        <v>-5.0467725308340003E-5</v>
       </c>
       <c r="J14" s="1">
-        <v>1.1452917675300001E-10</v>
+        <v>-1.9213244616493001E-10</v>
       </c>
       <c r="K14" s="1">
-        <v>-5.0467725308340003E-5</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-1.9213244616493001E-10</v>
-      </c>
-      <c r="M14">
         <v>-35314384.031191997</v>
       </c>
       <c r="P14">
@@ -1510,30 +1437,24 @@
         <v>-6.5192580223083E-9</v>
       </c>
       <c r="E15" s="1">
-        <v>-4.9349286899023999E-5</v>
+        <v>2.5299275411639E-4</v>
       </c>
       <c r="F15" s="1">
-        <v>2.5299275411639E-4</v>
-      </c>
-      <c r="G15">
-        <v>-37158827.031690001</v>
+        <v>-4.9349963627668001E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.1644524780136E-10</v>
       </c>
       <c r="H15" s="1">
-        <v>-4.9349963627668001E-5</v>
+        <v>-9.2435462373085001E-11</v>
       </c>
       <c r="I15" s="1">
-        <v>2.1644524780136E-10</v>
+        <v>-4.9349383142657003E-5</v>
       </c>
       <c r="J15" s="1">
-        <v>-9.2435462373085001E-11</v>
+        <v>-2.2694468578662E-10</v>
       </c>
       <c r="K15" s="1">
-        <v>-4.9349383142657003E-5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-2.2694468578662E-10</v>
-      </c>
-      <c r="M15">
         <v>-37158827.031690001</v>
       </c>
       <c r="P15">
@@ -1563,7 +1484,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f>E2*PI()/180</f>
@@ -1590,19 +1511,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:8">
